--- a/foods_final.xlsx
+++ b/foods_final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikos\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikos\GitHub\Software-Technology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E3B2ED-FE1A-49A1-BD19-ACF3217E9950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EC0900-C89C-40B7-9B13-6B769CD8D621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,9 +122,6 @@
     <t>3.19</t>
   </si>
   <si>
-    <t>Shepherd's pie</t>
-  </si>
-  <si>
     <t>250.76</t>
   </si>
   <si>
@@ -1190,9 +1187,6 @@
     <t>76.04</t>
   </si>
   <si>
-    <t>Vegan shepherd's pie</t>
-  </si>
-  <si>
     <t>141.1</t>
   </si>
   <si>
@@ -1298,9 +1292,6 @@
     <t>40.79</t>
   </si>
   <si>
-    <t>Vegan sweet potato and lentil shepherd's pie</t>
-  </si>
-  <si>
     <t>952.24</t>
   </si>
   <si>
@@ -1313,9 +1304,6 @@
     <t>90.57</t>
   </si>
   <si>
-    <t>Vegan lentil and vegetable shepherd's pie</t>
-  </si>
-  <si>
     <t>485.03</t>
   </si>
   <si>
@@ -1328,9 +1316,6 @@
     <t>52.39</t>
   </si>
   <si>
-    <t>Vegan mushroom and lentil shepherd's pie</t>
-  </si>
-  <si>
     <t>602.75</t>
   </si>
   <si>
@@ -1667,9 +1652,6 @@
     <t>70.69</t>
   </si>
   <si>
-    <t>Vegan Keto Cauliflower and Lentil Shepherd's Pie</t>
-  </si>
-  <si>
     <t>538.69</t>
   </si>
   <si>
@@ -3000,6 +2982,24 @@
   </si>
   <si>
     <t>Sesame, Tree Nuts</t>
+  </si>
+  <si>
+    <t>Shepherds pie</t>
+  </si>
+  <si>
+    <t>Vegan shepherds pie</t>
+  </si>
+  <si>
+    <t>Vegan sweet potato and lentil shepherds pie</t>
+  </si>
+  <si>
+    <t>Vegan lentil and vegetable shepherds pie</t>
+  </si>
+  <si>
+    <t>Vegan mushroom and lentil shepherds pie</t>
+  </si>
+  <si>
+    <t>Vegan Keto Cauliflower and Lentil Shepherds Pie</t>
   </si>
 </sst>
 </file>
@@ -3372,13 +3372,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1"/>
+    <col min="1" max="1" width="79.85546875" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
@@ -3411,7 +3411,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3437,7 +3437,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="M2" s="1"/>
     </row>
@@ -3464,25 +3464,25 @@
         <v>7</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>981</v>
+      </c>
+      <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3491,25 +3491,25 @@
         <v>7</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3518,25 +3518,25 @@
         <v>7</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3545,25 +3545,25 @@
         <v>7</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>44</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3572,25 +3572,25 @@
         <v>7</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
         <v>47</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>49</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3599,25 +3599,25 @@
         <v>7</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
         <v>52</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>53</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>54</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>55</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3626,25 +3626,25 @@
         <v>7</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
         <v>57</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>58</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>59</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>60</v>
-      </c>
-      <c r="E10" t="s">
-        <v>61</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3653,25 +3653,25 @@
         <v>7</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
         <v>62</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>63</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>64</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>65</v>
-      </c>
-      <c r="E11" t="s">
-        <v>66</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3680,25 +3680,25 @@
         <v>7</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>68</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>69</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>70</v>
-      </c>
-      <c r="E12" t="s">
-        <v>71</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3707,25 +3707,25 @@
         <v>7</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
         <v>72</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>73</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>74</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>75</v>
-      </c>
-      <c r="E13" t="s">
-        <v>76</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3734,25 +3734,25 @@
         <v>7</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
         <v>77</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>78</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>79</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>80</v>
-      </c>
-      <c r="E14" t="s">
-        <v>81</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3761,25 +3761,25 @@
         <v>7</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s">
         <v>82</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>83</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>84</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>85</v>
-      </c>
-      <c r="E15" t="s">
-        <v>86</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>7</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
         <v>87</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>88</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>89</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>90</v>
-      </c>
-      <c r="E16" t="s">
-        <v>91</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3815,25 +3815,25 @@
         <v>7</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
         <v>92</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>93</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>94</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>95</v>
-      </c>
-      <c r="E17" t="s">
-        <v>96</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3842,25 +3842,25 @@
         <v>7</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
         <v>97</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>98</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>99</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>100</v>
-      </c>
-      <c r="E18" t="s">
-        <v>101</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>7</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
         <v>102</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>103</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>104</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>105</v>
-      </c>
-      <c r="E19" t="s">
-        <v>106</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3896,25 +3896,25 @@
         <v>7</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>108</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>109</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>110</v>
-      </c>
-      <c r="E20" t="s">
-        <v>111</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3923,25 +3923,25 @@
         <v>7</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" t="s">
         <v>112</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>113</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>114</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>115</v>
-      </c>
-      <c r="E21" t="s">
-        <v>116</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -3950,25 +3950,25 @@
         <v>7</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" t="s">
         <v>117</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>118</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>119</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>120</v>
-      </c>
-      <c r="E22" t="s">
-        <v>121</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -3977,25 +3977,25 @@
         <v>7</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" t="s">
         <v>122</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>123</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>124</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>125</v>
-      </c>
-      <c r="E23" t="s">
-        <v>126</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -4004,25 +4004,25 @@
         <v>7</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" t="s">
         <v>127</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>128</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>129</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>130</v>
-      </c>
-      <c r="E24" t="s">
-        <v>131</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -4031,25 +4031,25 @@
         <v>7</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" t="s">
         <v>132</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>133</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>134</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>135</v>
-      </c>
-      <c r="E25" t="s">
-        <v>136</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -4058,24 +4058,24 @@
         <v>7</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" t="s">
         <v>137</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>138</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>139</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>140</v>
-      </c>
-      <c r="E26" t="s">
-        <v>141</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -4084,24 +4084,24 @@
         <v>7</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" t="s">
         <v>142</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>143</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>144</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>145</v>
-      </c>
-      <c r="E27" t="s">
-        <v>146</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -4110,24 +4110,24 @@
         <v>7</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" t="s">
         <v>147</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>148</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>149</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>150</v>
-      </c>
-      <c r="E28" t="s">
-        <v>151</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -4136,24 +4136,24 @@
         <v>7</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" t="s">
         <v>152</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>153</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>154</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>155</v>
-      </c>
-      <c r="E29" t="s">
-        <v>156</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -4162,24 +4162,24 @@
         <v>7</v>
       </c>
       <c r="H29" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" t="s">
         <v>157</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>158</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>159</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>160</v>
-      </c>
-      <c r="E30" t="s">
-        <v>161</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -4188,24 +4188,24 @@
         <v>7</v>
       </c>
       <c r="H30" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" t="s">
         <v>162</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>163</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>164</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>165</v>
-      </c>
-      <c r="E31" t="s">
-        <v>166</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -4214,24 +4214,24 @@
         <v>7</v>
       </c>
       <c r="H31" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" t="s">
         <v>167</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>168</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>169</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>170</v>
-      </c>
-      <c r="E32" t="s">
-        <v>171</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -4240,24 +4240,24 @@
         <v>7</v>
       </c>
       <c r="H32" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" t="s">
         <v>172</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>173</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>174</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>175</v>
-      </c>
-      <c r="E33" t="s">
-        <v>176</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -4266,24 +4266,24 @@
         <v>7</v>
       </c>
       <c r="H33" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" t="s">
         <v>177</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>178</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>179</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>180</v>
-      </c>
-      <c r="E34" t="s">
-        <v>181</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -4292,24 +4292,24 @@
         <v>7</v>
       </c>
       <c r="H34" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" t="s">
         <v>182</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>183</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>184</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>185</v>
-      </c>
-      <c r="E35" t="s">
-        <v>186</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -4318,24 +4318,24 @@
         <v>8</v>
       </c>
       <c r="H35" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36" t="s">
         <v>187</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>188</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>189</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>190</v>
-      </c>
-      <c r="E36" t="s">
-        <v>191</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -4344,24 +4344,24 @@
         <v>8</v>
       </c>
       <c r="H36" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37" t="s">
         <v>192</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>193</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>194</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>195</v>
-      </c>
-      <c r="E37" t="s">
-        <v>196</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -4370,24 +4370,24 @@
         <v>8</v>
       </c>
       <c r="H37" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" t="s">
         <v>197</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>198</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>199</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>200</v>
-      </c>
-      <c r="E38" t="s">
-        <v>201</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -4396,24 +4396,24 @@
         <v>8</v>
       </c>
       <c r="H38" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>201</v>
+      </c>
+      <c r="B39" t="s">
         <v>202</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>203</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>204</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>205</v>
-      </c>
-      <c r="E39" t="s">
-        <v>206</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -4422,24 +4422,24 @@
         <v>8</v>
       </c>
       <c r="H39" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>206</v>
+      </c>
+      <c r="B40" t="s">
         <v>207</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>208</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>209</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>210</v>
-      </c>
-      <c r="E40" t="s">
-        <v>211</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -4448,24 +4448,24 @@
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" t="s">
         <v>212</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>213</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>214</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>215</v>
-      </c>
-      <c r="E41" t="s">
-        <v>216</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -4474,24 +4474,24 @@
         <v>8</v>
       </c>
       <c r="H41" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>219</v>
+      </c>
+      <c r="B42" t="s">
         <v>220</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>221</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>222</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>223</v>
-      </c>
-      <c r="E42" t="s">
-        <v>224</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -4500,24 +4500,24 @@
         <v>8</v>
       </c>
       <c r="H42" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>224</v>
+      </c>
+      <c r="B43" t="s">
         <v>225</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>226</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>227</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>228</v>
-      </c>
-      <c r="E43" t="s">
-        <v>229</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -4526,24 +4526,24 @@
         <v>8</v>
       </c>
       <c r="H43" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>231</v>
+      </c>
+      <c r="B44" t="s">
         <v>232</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>233</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>234</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>235</v>
-      </c>
-      <c r="E44" t="s">
-        <v>236</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -4552,24 +4552,24 @@
         <v>8</v>
       </c>
       <c r="H44" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>236</v>
+      </c>
+      <c r="B45" t="s">
         <v>237</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>238</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>239</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>240</v>
-      </c>
-      <c r="E45" t="s">
-        <v>241</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -4578,24 +4578,24 @@
         <v>8</v>
       </c>
       <c r="H45" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>241</v>
+      </c>
+      <c r="B46" t="s">
         <v>242</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>243</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>244</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>245</v>
-      </c>
-      <c r="E46" t="s">
-        <v>246</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -4604,24 +4604,24 @@
         <v>8</v>
       </c>
       <c r="H46" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>246</v>
+      </c>
+      <c r="B47" t="s">
         <v>247</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>248</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>249</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>250</v>
-      </c>
-      <c r="E47" t="s">
-        <v>251</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -4630,24 +4630,24 @@
         <v>8</v>
       </c>
       <c r="H47" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>251</v>
+      </c>
+      <c r="B48" t="s">
         <v>252</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>253</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>254</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>255</v>
-      </c>
-      <c r="E48" t="s">
-        <v>256</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -4656,24 +4656,24 @@
         <v>8</v>
       </c>
       <c r="H48" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>256</v>
+      </c>
+      <c r="B49" t="s">
         <v>257</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>258</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>259</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>260</v>
-      </c>
-      <c r="E49" t="s">
-        <v>261</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -4682,24 +4682,24 @@
         <v>8</v>
       </c>
       <c r="H49" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>261</v>
+      </c>
+      <c r="B50" t="s">
         <v>262</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>263</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>264</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>265</v>
-      </c>
-      <c r="E50" t="s">
-        <v>266</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -4708,24 +4708,24 @@
         <v>8</v>
       </c>
       <c r="H50" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>266</v>
+      </c>
+      <c r="B51" t="s">
         <v>267</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>268</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>269</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>270</v>
-      </c>
-      <c r="E51" t="s">
-        <v>271</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -4734,24 +4734,24 @@
         <v>8</v>
       </c>
       <c r="H51" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>272</v>
+      </c>
+      <c r="B52" t="s">
         <v>273</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>274</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>275</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>276</v>
-      </c>
-      <c r="E52" t="s">
-        <v>277</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -4760,24 +4760,24 @@
         <v>8</v>
       </c>
       <c r="H52" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>277</v>
+      </c>
+      <c r="B53" t="s">
         <v>278</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>279</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>280</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>281</v>
-      </c>
-      <c r="E53" t="s">
-        <v>282</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -4786,24 +4786,24 @@
         <v>8</v>
       </c>
       <c r="H53" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>282</v>
+      </c>
+      <c r="B54" t="s">
         <v>283</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>284</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>285</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>286</v>
-      </c>
-      <c r="E54" t="s">
-        <v>287</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -4812,24 +4812,24 @@
         <v>8</v>
       </c>
       <c r="H54" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>287</v>
+      </c>
+      <c r="B55" t="s">
         <v>288</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>289</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>290</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>291</v>
-      </c>
-      <c r="E55" t="s">
-        <v>292</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -4838,24 +4838,24 @@
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>292</v>
+      </c>
+      <c r="B56" t="s">
         <v>293</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>294</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>295</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>296</v>
-      </c>
-      <c r="E56" t="s">
-        <v>297</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -4864,24 +4864,24 @@
         <v>9</v>
       </c>
       <c r="H56" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>297</v>
+      </c>
+      <c r="B57" t="s">
         <v>298</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>299</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>300</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>301</v>
-      </c>
-      <c r="E57" t="s">
-        <v>302</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -4890,24 +4890,24 @@
         <v>9</v>
       </c>
       <c r="H57" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>302</v>
+      </c>
+      <c r="B58" t="s">
         <v>303</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>304</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>305</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>306</v>
-      </c>
-      <c r="E58" t="s">
-        <v>307</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -4916,24 +4916,24 @@
         <v>9</v>
       </c>
       <c r="H58" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>307</v>
+      </c>
+      <c r="B59" t="s">
         <v>308</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>309</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>310</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>311</v>
-      </c>
-      <c r="E59" t="s">
-        <v>312</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -4942,24 +4942,24 @@
         <v>9</v>
       </c>
       <c r="H59" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>312</v>
+      </c>
+      <c r="B60" t="s">
         <v>313</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>314</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>315</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>316</v>
-      </c>
-      <c r="E60" t="s">
-        <v>317</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -4968,24 +4968,24 @@
         <v>9</v>
       </c>
       <c r="H60" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>317</v>
+      </c>
+      <c r="B61" t="s">
         <v>318</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>319</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>320</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>321</v>
-      </c>
-      <c r="E61" t="s">
-        <v>322</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -4994,24 +4994,24 @@
         <v>9</v>
       </c>
       <c r="H61" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>322</v>
+      </c>
+      <c r="B62" t="s">
         <v>323</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>324</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>325</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>326</v>
-      </c>
-      <c r="E62" t="s">
-        <v>327</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -5020,24 +5020,24 @@
         <v>9</v>
       </c>
       <c r="H62" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>328</v>
+      </c>
+      <c r="B63" t="s">
         <v>329</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>330</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>331</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>332</v>
-      </c>
-      <c r="E63" t="s">
-        <v>333</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -5046,24 +5046,24 @@
         <v>9</v>
       </c>
       <c r="H63" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>333</v>
+      </c>
+      <c r="B64" t="s">
         <v>334</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
+        <v>218</v>
+      </c>
+      <c r="D64" t="s">
         <v>335</v>
       </c>
-      <c r="C64" t="s">
-        <v>219</v>
-      </c>
-      <c r="D64" t="s">
-        <v>336</v>
-      </c>
       <c r="E64" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -5072,24 +5072,24 @@
         <v>9</v>
       </c>
       <c r="H64" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>336</v>
+      </c>
+      <c r="B65" t="s">
         <v>337</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>338</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>339</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>340</v>
-      </c>
-      <c r="E65" t="s">
-        <v>341</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -5098,24 +5098,24 @@
         <v>9</v>
       </c>
       <c r="H65" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>341</v>
+      </c>
+      <c r="B66" t="s">
         <v>342</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>343</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>344</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>345</v>
-      </c>
-      <c r="E66" t="s">
-        <v>346</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -5124,24 +5124,24 @@
         <v>9</v>
       </c>
       <c r="H66" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>346</v>
+      </c>
+      <c r="B67" t="s">
         <v>347</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>348</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>349</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>350</v>
-      </c>
-      <c r="E67" t="s">
-        <v>351</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -5150,24 +5150,24 @@
         <v>9</v>
       </c>
       <c r="H67" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>351</v>
+      </c>
+      <c r="B68" t="s">
         <v>352</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>353</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>354</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>355</v>
-      </c>
-      <c r="E68" t="s">
-        <v>356</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -5176,24 +5176,24 @@
         <v>9</v>
       </c>
       <c r="H68" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>356</v>
+      </c>
+      <c r="B69" t="s">
         <v>357</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>358</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>359</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>360</v>
-      </c>
-      <c r="E69" t="s">
-        <v>361</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -5202,24 +5202,24 @@
         <v>9</v>
       </c>
       <c r="H69" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>361</v>
+      </c>
+      <c r="B70" t="s">
         <v>362</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>363</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>364</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>365</v>
-      </c>
-      <c r="E70" t="s">
-        <v>366</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -5228,24 +5228,24 @@
         <v>9</v>
       </c>
       <c r="H70" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>366</v>
+      </c>
+      <c r="B71" t="s">
         <v>367</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>368</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>369</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>370</v>
-      </c>
-      <c r="E71" t="s">
-        <v>371</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -5254,24 +5254,24 @@
         <v>9</v>
       </c>
       <c r="H71" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>372</v>
+      </c>
+      <c r="B72" t="s">
         <v>373</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>374</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>375</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>376</v>
-      </c>
-      <c r="E72" t="s">
-        <v>377</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -5280,24 +5280,24 @@
         <v>10</v>
       </c>
       <c r="H72" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>377</v>
+      </c>
+      <c r="B73" t="s">
         <v>378</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>379</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>380</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>381</v>
-      </c>
-      <c r="E73" t="s">
-        <v>382</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -5306,24 +5306,24 @@
         <v>10</v>
       </c>
       <c r="H73" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>982</v>
+      </c>
+      <c r="B74" t="s">
+        <v>382</v>
+      </c>
+      <c r="C74" t="s">
         <v>383</v>
       </c>
-      <c r="B74" t="s">
+      <c r="D74" t="s">
         <v>384</v>
       </c>
-      <c r="C74" t="s">
+      <c r="E74" t="s">
         <v>385</v>
-      </c>
-      <c r="D74" t="s">
-        <v>386</v>
-      </c>
-      <c r="E74" t="s">
-        <v>387</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -5332,24 +5332,24 @@
         <v>10</v>
       </c>
       <c r="H74" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>386</v>
+      </c>
+      <c r="B75" t="s">
+        <v>387</v>
+      </c>
+      <c r="C75" t="s">
         <v>388</v>
       </c>
-      <c r="B75" t="s">
+      <c r="D75" t="s">
         <v>389</v>
       </c>
-      <c r="C75" t="s">
+      <c r="E75" t="s">
         <v>390</v>
-      </c>
-      <c r="D75" t="s">
-        <v>391</v>
-      </c>
-      <c r="E75" t="s">
-        <v>392</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -5358,24 +5358,24 @@
         <v>10</v>
       </c>
       <c r="H75" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>392</v>
+      </c>
+      <c r="B76" t="s">
+        <v>393</v>
+      </c>
+      <c r="C76" t="s">
         <v>394</v>
       </c>
-      <c r="B76" t="s">
+      <c r="D76" t="s">
         <v>395</v>
       </c>
-      <c r="C76" t="s">
+      <c r="E76" t="s">
         <v>396</v>
-      </c>
-      <c r="D76" t="s">
-        <v>397</v>
-      </c>
-      <c r="E76" t="s">
-        <v>398</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -5384,24 +5384,24 @@
         <v>10</v>
       </c>
       <c r="H76" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>397</v>
+      </c>
+      <c r="B77" t="s">
+        <v>398</v>
+      </c>
+      <c r="C77" t="s">
         <v>399</v>
       </c>
-      <c r="B77" t="s">
+      <c r="D77" t="s">
         <v>400</v>
       </c>
-      <c r="C77" t="s">
+      <c r="E77" t="s">
         <v>401</v>
-      </c>
-      <c r="D77" t="s">
-        <v>402</v>
-      </c>
-      <c r="E77" t="s">
-        <v>403</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5410,24 +5410,24 @@
         <v>10</v>
       </c>
       <c r="H77" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>402</v>
+      </c>
+      <c r="B78" t="s">
+        <v>403</v>
+      </c>
+      <c r="C78" t="s">
         <v>404</v>
       </c>
-      <c r="B78" t="s">
+      <c r="D78" t="s">
         <v>405</v>
       </c>
-      <c r="C78" t="s">
+      <c r="E78" t="s">
         <v>406</v>
-      </c>
-      <c r="D78" t="s">
-        <v>407</v>
-      </c>
-      <c r="E78" t="s">
-        <v>408</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -5436,24 +5436,24 @@
         <v>10</v>
       </c>
       <c r="H78" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>407</v>
+      </c>
+      <c r="B79" t="s">
+        <v>408</v>
+      </c>
+      <c r="C79" t="s">
         <v>409</v>
       </c>
-      <c r="B79" t="s">
+      <c r="D79" t="s">
         <v>410</v>
       </c>
-      <c r="C79" t="s">
+      <c r="E79" t="s">
         <v>411</v>
-      </c>
-      <c r="D79" t="s">
-        <v>412</v>
-      </c>
-      <c r="E79" t="s">
-        <v>413</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -5462,24 +5462,24 @@
         <v>10</v>
       </c>
       <c r="H79" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>412</v>
+      </c>
+      <c r="B80" t="s">
+        <v>413</v>
+      </c>
+      <c r="C80" t="s">
         <v>414</v>
       </c>
-      <c r="B80" t="s">
+      <c r="D80" t="s">
         <v>415</v>
       </c>
-      <c r="C80" t="s">
+      <c r="E80" t="s">
         <v>416</v>
-      </c>
-      <c r="D80" t="s">
-        <v>417</v>
-      </c>
-      <c r="E80" t="s">
-        <v>418</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -5488,24 +5488,24 @@
         <v>10</v>
       </c>
       <c r="H80" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>983</v>
+      </c>
+      <c r="B81" t="s">
+        <v>417</v>
+      </c>
+      <c r="C81" t="s">
+        <v>418</v>
+      </c>
+      <c r="D81" t="s">
         <v>419</v>
       </c>
-      <c r="B81" t="s">
+      <c r="E81" t="s">
         <v>420</v>
-      </c>
-      <c r="C81" t="s">
-        <v>421</v>
-      </c>
-      <c r="D81" t="s">
-        <v>422</v>
-      </c>
-      <c r="E81" t="s">
-        <v>423</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -5514,24 +5514,24 @@
         <v>10</v>
       </c>
       <c r="H81" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>984</v>
+      </c>
+      <c r="B82" t="s">
+        <v>421</v>
+      </c>
+      <c r="C82" t="s">
+        <v>422</v>
+      </c>
+      <c r="D82" t="s">
+        <v>423</v>
+      </c>
+      <c r="E82" t="s">
         <v>424</v>
-      </c>
-      <c r="B82" t="s">
-        <v>425</v>
-      </c>
-      <c r="C82" t="s">
-        <v>426</v>
-      </c>
-      <c r="D82" t="s">
-        <v>427</v>
-      </c>
-      <c r="E82" t="s">
-        <v>428</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -5540,24 +5540,24 @@
         <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>429</v>
+        <v>985</v>
       </c>
       <c r="B83" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C83" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D83" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E83" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -5566,24 +5566,24 @@
         <v>10</v>
       </c>
       <c r="H83" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B84" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C84" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D84" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E84" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -5592,24 +5592,24 @@
         <v>10</v>
       </c>
       <c r="H84" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B85" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C85" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D85" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E85" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -5618,24 +5618,24 @@
         <v>10</v>
       </c>
       <c r="H85" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B86" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C86" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D86" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E86" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -5644,24 +5644,24 @@
         <v>10</v>
       </c>
       <c r="H86" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B87" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C87" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D87" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E87" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -5670,24 +5670,24 @@
         <v>10</v>
       </c>
       <c r="H87" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B88" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C88" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D88" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E88" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -5696,24 +5696,24 @@
         <v>10</v>
       </c>
       <c r="H88" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B89" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C89" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D89" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E89" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -5722,24 +5722,24 @@
         <v>10</v>
       </c>
       <c r="H89" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B90" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C90" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D90" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E90" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -5748,24 +5748,24 @@
         <v>11</v>
       </c>
       <c r="H90" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B91" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C91" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D91" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E91" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -5774,24 +5774,24 @@
         <v>11</v>
       </c>
       <c r="H91" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B92" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C92" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D92" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E92" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -5800,24 +5800,24 @@
         <v>11</v>
       </c>
       <c r="H92" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B93" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C93" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D93" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E93" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -5826,24 +5826,24 @@
         <v>11</v>
       </c>
       <c r="H93" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B94" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C94" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D94" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E94" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -5852,24 +5852,24 @@
         <v>11</v>
       </c>
       <c r="H94" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B95" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C95" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D95" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E95" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -5878,24 +5878,24 @@
         <v>11</v>
       </c>
       <c r="H95" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B96" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C96" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D96" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E96" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -5904,24 +5904,24 @@
         <v>11</v>
       </c>
       <c r="H96" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B97" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C97" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D97" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E97" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -5930,24 +5930,24 @@
         <v>11</v>
       </c>
       <c r="H97" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B98" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C98" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D98" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E98" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -5956,24 +5956,24 @@
         <v>11</v>
       </c>
       <c r="H98" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B99" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C99" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D99" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E99" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -5982,24 +5982,24 @@
         <v>11</v>
       </c>
       <c r="H99" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B100" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C100" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D100" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="E100" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -6008,24 +6008,24 @@
         <v>11</v>
       </c>
       <c r="H100" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B101" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C101" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D101" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E101" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -6034,24 +6034,24 @@
         <v>11</v>
       </c>
       <c r="H101" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B102" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C102" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D102" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E102" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -6060,24 +6060,24 @@
         <v>11</v>
       </c>
       <c r="H102" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B103" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C103" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D103" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="E103" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -6086,24 +6086,24 @@
         <v>11</v>
       </c>
       <c r="H103" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B104" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C104" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D104" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E104" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -6112,24 +6112,24 @@
         <v>11</v>
       </c>
       <c r="H104" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>542</v>
+        <v>986</v>
       </c>
       <c r="B105" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C105" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D105" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="E105" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -6138,24 +6138,24 @@
         <v>11</v>
       </c>
       <c r="H105" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B106" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C106" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D106" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -6164,24 +6164,24 @@
         <v>11</v>
       </c>
       <c r="H106" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B107" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C107" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D107" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E107" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -6190,24 +6190,24 @@
         <v>11</v>
       </c>
       <c r="H107" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B108" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C108" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D108" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="E108" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -6216,24 +6216,24 @@
         <v>11</v>
       </c>
       <c r="H108" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B109" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C109" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D109" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E109" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -6242,24 +6242,24 @@
         <v>11</v>
       </c>
       <c r="H109" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B110" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C110" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D110" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E110" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -6268,24 +6268,24 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B111" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C111" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D111" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="E111" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -6294,24 +6294,24 @@
         <v>12</v>
       </c>
       <c r="H111" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B112" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C112" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D112" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E112" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -6320,24 +6320,24 @@
         <v>12</v>
       </c>
       <c r="H112" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B113" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C113" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D113" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E113" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -6346,24 +6346,24 @@
         <v>12</v>
       </c>
       <c r="H113" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B114" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C114" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D114" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E114" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -6372,24 +6372,24 @@
         <v>12</v>
       </c>
       <c r="H114" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B115" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C115" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D115" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E115" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -6398,24 +6398,24 @@
         <v>12</v>
       </c>
       <c r="H115" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B116" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C116" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D116" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="E116" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -6424,24 +6424,24 @@
         <v>12</v>
       </c>
       <c r="H116" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B117" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C117" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D117" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="E117" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -6450,24 +6450,24 @@
         <v>12</v>
       </c>
       <c r="H117" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B118" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C118" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="D118" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="E118" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -6476,24 +6476,24 @@
         <v>12</v>
       </c>
       <c r="H118" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B119" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C119" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D119" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E119" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -6502,24 +6502,24 @@
         <v>12</v>
       </c>
       <c r="H119" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B120" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C120" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D120" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="E120" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -6528,24 +6528,24 @@
         <v>12</v>
       </c>
       <c r="H120" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B121" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="C121" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D121" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E121" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -6554,24 +6554,24 @@
         <v>12</v>
       </c>
       <c r="H121" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B122" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="C122" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D122" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="E122" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -6580,24 +6580,24 @@
         <v>12</v>
       </c>
       <c r="H122" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="B123" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="C123" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D123" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="E123" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -6606,24 +6606,24 @@
         <v>12</v>
       </c>
       <c r="H123" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B124" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C124" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D124" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E124" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -6632,24 +6632,24 @@
         <v>12</v>
       </c>
       <c r="H124" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B125" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C125" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D125" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E125" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -6658,24 +6658,24 @@
         <v>12</v>
       </c>
       <c r="H125" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="B126" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C126" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D126" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E126" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -6684,24 +6684,24 @@
         <v>12</v>
       </c>
       <c r="H126" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="B127" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C127" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="D127" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="E127" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -6710,24 +6710,24 @@
         <v>12</v>
       </c>
       <c r="H127" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B128" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C128" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D128" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E128" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -6736,24 +6736,24 @@
         <v>13</v>
       </c>
       <c r="H128" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="B129" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C129" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D129" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="E129" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -6762,24 +6762,24 @@
         <v>13</v>
       </c>
       <c r="H129" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B130" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C130" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D130" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="E130" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -6788,24 +6788,24 @@
         <v>13</v>
       </c>
       <c r="H130" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="B131" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="C131" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D131" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E131" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -6814,24 +6814,24 @@
         <v>13</v>
       </c>
       <c r="H131" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="B132" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C132" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="D132" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="E132" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -6840,24 +6840,24 @@
         <v>13</v>
       </c>
       <c r="H132" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="B133" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C133" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="D133" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="E133" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -6866,24 +6866,24 @@
         <v>13</v>
       </c>
       <c r="H133" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="B134" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C134" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D134" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="E134" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -6892,24 +6892,24 @@
         <v>13</v>
       </c>
       <c r="H134" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="B135" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="C135" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D135" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="E135" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -6918,24 +6918,24 @@
         <v>13</v>
       </c>
       <c r="H135" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B136" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="C136" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="D136" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="E136" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -6944,24 +6944,24 @@
         <v>13</v>
       </c>
       <c r="H136" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="B137" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C137" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D137" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="E137" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -6970,24 +6970,24 @@
         <v>13</v>
       </c>
       <c r="H137" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B138" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="C138" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="D138" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="E138" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -6996,24 +6996,24 @@
         <v>13</v>
       </c>
       <c r="H138" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="B139" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="C139" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="D139" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="E139" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -7022,24 +7022,24 @@
         <v>13</v>
       </c>
       <c r="H139" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B140" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="C140" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="D140" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E140" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -7048,24 +7048,24 @@
         <v>13</v>
       </c>
       <c r="H140" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="B141" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C141" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="D141" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="E141" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -7074,24 +7074,24 @@
         <v>13</v>
       </c>
       <c r="H141" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="B142" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="C142" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="D142" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="E142" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -7100,24 +7100,24 @@
         <v>13</v>
       </c>
       <c r="H142" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="B143" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="C143" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="D143" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="E143" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -7126,24 +7126,24 @@
         <v>13</v>
       </c>
       <c r="H143" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="B144" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="C144" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="D144" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="E144" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -7152,24 +7152,24 @@
         <v>13</v>
       </c>
       <c r="H144" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="B145" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="C145" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="D145" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="E145" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -7178,24 +7178,24 @@
         <v>13</v>
       </c>
       <c r="H145" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="B146" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="C146" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="D146" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="E146" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -7204,24 +7204,24 @@
         <v>13</v>
       </c>
       <c r="H146" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B147" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="C147" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="D147" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="E147" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -7230,24 +7230,24 @@
         <v>13</v>
       </c>
       <c r="H147" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="B148" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="C148" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="D148" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="E148" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -7256,24 +7256,24 @@
         <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="B149" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="C149" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D149" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="E149" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -7282,24 +7282,24 @@
         <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B150" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="C150" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="D150" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="E150" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -7308,24 +7308,24 @@
         <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="B151" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="C151" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="D151" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="E151" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -7334,24 +7334,24 @@
         <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="B152" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C152" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="D152" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="E152" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -7360,24 +7360,24 @@
         <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="B153" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="C153" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="D153" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="E153" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -7386,24 +7386,24 @@
         <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B154" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="C154" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="D154" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E154" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -7412,24 +7412,24 @@
         <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B155" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="C155" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="D155" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="E155" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -7438,24 +7438,24 @@
         <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="B156" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="C156" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="D156" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="E156" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -7464,24 +7464,24 @@
         <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="B157" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="C157" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="D157" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="E157" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -7490,24 +7490,24 @@
         <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="B158" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="C158" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D158" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E158" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="F158">
         <v>1</v>
@@ -7516,24 +7516,24 @@
         <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B159" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="C159" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="D159" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="E159" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="F159">
         <v>1</v>
@@ -7542,24 +7542,24 @@
         <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="B160" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="C160" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="D160" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E160" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="F160">
         <v>1</v>
@@ -7568,24 +7568,24 @@
         <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="B161" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="C161" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="D161" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="E161" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="F161">
         <v>1</v>
@@ -7594,24 +7594,24 @@
         <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="B162" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="C162" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="D162" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="E162" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -7620,24 +7620,24 @@
         <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="B163" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="C163" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D163" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E163" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -7646,24 +7646,24 @@
         <v>15</v>
       </c>
       <c r="H163" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="B164" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="C164" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="D164" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="E164" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -7672,24 +7672,24 @@
         <v>15</v>
       </c>
       <c r="H164" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="B165" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C165" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="D165" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="E165" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -7698,24 +7698,24 @@
         <v>15</v>
       </c>
       <c r="H165" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="B166" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C166" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="D166" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="E166" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -7724,24 +7724,24 @@
         <v>15</v>
       </c>
       <c r="H166" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="B167" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="C167" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="D167" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="E167" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -7750,24 +7750,24 @@
         <v>15</v>
       </c>
       <c r="H167" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="B168" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="C168" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="D168" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="E168" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -7776,24 +7776,24 @@
         <v>15</v>
       </c>
       <c r="H168" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="B169" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="C169" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="D169" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="E169" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -7802,24 +7802,24 @@
         <v>15</v>
       </c>
       <c r="H169" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="B170" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C170" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D170" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="E170" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -7828,24 +7828,24 @@
         <v>15</v>
       </c>
       <c r="H170" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="B171" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="C171" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="D171" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="E171" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -7854,24 +7854,24 @@
         <v>15</v>
       </c>
       <c r="H171" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="B172" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="C172" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="D172" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="E172" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -7880,24 +7880,24 @@
         <v>15</v>
       </c>
       <c r="H172" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="B173" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="C173" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="D173" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="E173" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="F173">
         <v>1</v>
@@ -7906,24 +7906,24 @@
         <v>15</v>
       </c>
       <c r="H173" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="B174" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="C174" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D174" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="E174" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="F174">
         <v>1</v>
@@ -7932,24 +7932,24 @@
         <v>15</v>
       </c>
       <c r="H174" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="B175" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="C175" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D175" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="E175" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -7958,24 +7958,24 @@
         <v>15</v>
       </c>
       <c r="H175" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="B176" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="C176" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D176" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="E176" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="F176">
         <v>1</v>
@@ -7984,24 +7984,24 @@
         <v>15</v>
       </c>
       <c r="H176" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="B177" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="C177" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="D177" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="E177" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -8010,24 +8010,24 @@
         <v>16</v>
       </c>
       <c r="H177" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="B178" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="C178" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="D178" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="E178" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -8036,24 +8036,24 @@
         <v>16</v>
       </c>
       <c r="H178" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B179" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="C179" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="D179" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="E179" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -8062,24 +8062,24 @@
         <v>16</v>
       </c>
       <c r="H179" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="B180" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="C180" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="D180" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="E180" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -8088,24 +8088,24 @@
         <v>16</v>
       </c>
       <c r="H180" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="B181" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="C181" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="D181" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="E181" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -8114,24 +8114,24 @@
         <v>16</v>
       </c>
       <c r="H181" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="B182" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="C182" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="D182" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E182" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -8140,24 +8140,24 @@
         <v>16</v>
       </c>
       <c r="H182" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="B183" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="C183" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="D183" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="E183" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -8166,24 +8166,24 @@
         <v>16</v>
       </c>
       <c r="H183" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="B184" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="C184" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="D184" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E184" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -8192,24 +8192,24 @@
         <v>16</v>
       </c>
       <c r="H184" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="B185" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="C185" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D185" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="E185" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -8218,24 +8218,24 @@
         <v>16</v>
       </c>
       <c r="H185" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="B186" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="C186" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="D186" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="E186" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -8244,24 +8244,24 @@
         <v>16</v>
       </c>
       <c r="H186" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="B187" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="C187" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="D187" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="E187" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -8270,24 +8270,24 @@
         <v>16</v>
       </c>
       <c r="H187" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="B188" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="C188" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="D188" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E188" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -8296,24 +8296,24 @@
         <v>16</v>
       </c>
       <c r="H188" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="B189" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="C189" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D189" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="E189" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -8322,24 +8322,24 @@
         <v>16</v>
       </c>
       <c r="H189" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="B190" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="C190" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="D190" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="E190" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="F190">
         <v>1</v>
@@ -8348,24 +8348,24 @@
         <v>16</v>
       </c>
       <c r="H190" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="B191" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="C191" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="D191" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="E191" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -8374,24 +8374,24 @@
         <v>16</v>
       </c>
       <c r="H191" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="B192" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="C192" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="D192" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E192" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="F192">
         <v>1</v>
@@ -8400,24 +8400,24 @@
         <v>16</v>
       </c>
       <c r="H192" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="B193" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="C193" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="D193" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="E193" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="F193">
         <v>1</v>
@@ -8426,24 +8426,24 @@
         <v>16</v>
       </c>
       <c r="H193" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="B194" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="C194" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="D194" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="E194" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -8452,7 +8452,7 @@
         <v>16</v>
       </c>
       <c r="H194" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
     </row>
   </sheetData>
